--- a/総勘定元帳.xlsx
+++ b/総勘定元帳.xlsx
@@ -23,7 +23,23 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="通信費" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="事務費" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'現金'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'ゆうちょ定期'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'前払金'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'前受金'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'会費収入'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'入会金収入'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'預貯金利子'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'雑収入'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'行事費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'交際費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'旅費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'会議費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'通信費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">'事務費'!1:3</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -722,6 +738,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -974,6 +998,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1123,6 +1155,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1272,6 +1312,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1421,6 +1469,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1570,6 +1626,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1719,6 +1783,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2045,6 +2117,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2194,6 +2274,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2376,6 +2464,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2560,6 +2656,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2884,6 +2988,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3066,6 +3178,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3215,6 +3335,14 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3364,5 +3492,13 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/総勘定元帳.xlsx
+++ b/総勘定元帳.xlsx
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy年m月d日"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -93,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -508,230 +511,234 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>123456</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>128456</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>133456</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>132356</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44353</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>182356</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>60000</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>182356</v>
       </c>
     </row>
@@ -755,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,202 +804,169 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44322</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>会場費 ××ホテル</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>291100</v>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>前払金</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>会場費予約金 ××ホテル</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>B事業</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>前払金</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>会場費予約金 ××ホテル</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>301100</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>301100</v>
+      <c r="G7" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
   </sheetData>
@@ -1057,98 +1031,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,98 +1192,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,98 +1353,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,98 +1514,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,98 +1675,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,276 +1836,206 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>1776666</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>1786666</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>1791666</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>会費収入</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>準会員</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">佐藤建設 </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1794666</v>
+      <c r="A7" s="3" t="n">
+        <v>44353</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>ゆうちょ</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">現金引出 </t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1741666</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
-        <v>44353</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>現金</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">現金引出 </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
+      <c r="A8" s="3" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>期末</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <v>1744666</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>行事費</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>B事業</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>会場費 ××ホテル</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1454666</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2" t="n">
-        <v>44651</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>期末</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>340000</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1454666</v>
+      <c r="I8" s="5" t="n">
+        <v>1741666</v>
       </c>
     </row>
   </sheetData>
@@ -2176,98 +2100,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -2333,131 +2261,135 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2523,133 +2455,137 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,7 +2609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,274 +2651,241 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>準会員</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>A銀行</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">佐藤建設 </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18000</v>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>正会員</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>前受金</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">吉田 </t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>正会員</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>前受金</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">吉田 </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B10" s="3" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>23000</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>23000</v>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -3047,131 +2950,135 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -3237,98 +3144,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3394,98 +3305,102 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～2022年3月31日</t>
+      <c r="F2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/総勘定元帳.xlsx
+++ b/総勘定元帳.xlsx
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy年m月d日"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -93,11 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -511,234 +508,230 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>123456</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>128456</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>133456</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44322</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="4" t="n">
         <v>132356</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44353</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>182356</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="4" t="n">
         <v>60000</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="4" t="n">
         <v>182356</v>
       </c>
     </row>
@@ -762,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,169 +797,202 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44322</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>文房具購入 〇〇HC</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44367</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>会場費 ××ホテル</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>291100</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>301100</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr"/>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>11100</v>
+      <c r="G8" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
   </sheetData>
@@ -1031,102 +1057,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1192,102 +1214,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1353,102 +1371,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,102 +1528,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1675,102 +1685,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1794,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1836,206 +1842,276 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>1776666</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1786666</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>1791666</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>準会員</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佐藤建設 </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1794666</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="2" t="n">
         <v>44353</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">現金引出 </t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>1741666</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="n">
+      <c r="I8" s="4" t="n">
+        <v>1744666</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>44367</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>会場費 ××ホテル</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1454666</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>1741666</v>
+      <c r="G10" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>340000</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1454666</v>
       </c>
     </row>
   </sheetData>
@@ -2100,102 +2176,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -2261,135 +2333,131 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44367</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>会場費予約金 ××ホテル</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2455,137 +2523,133 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +2673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,241 +2715,274 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="4" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44291</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">田中 </t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="4" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>準会員</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>A銀行</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佐藤建設 </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="B9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">吉田 </t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="I8" s="5" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3" t="n">
+      <c r="I9" s="4" t="n">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>20000</v>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>23000</v>
       </c>
     </row>
   </sheetData>
@@ -2950,135 +3047,131 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44306</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">木村 </t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -3144,102 +3237,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3305,102 +3394,98 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="F2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>番号</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>補助科目</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>相手科目</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>相手補助</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>摘要</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>期首</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="n">
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>期末</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/総勘定元帳.xlsx
+++ b/総勘定元帳.xlsx
@@ -24,21 +24,21 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="事務費" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'現金'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'ゆうちょ定期'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'前払金'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'前受金'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'会費収入'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'入会金収入'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'預貯金利子'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'雑収入'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'行事費'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'交際費'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'旅費'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'会議費'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">'通信費'!1:3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="14">'事務費'!1:3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'現金'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'普通預金'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'ゆうちょ定期'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'前払金'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'前受金'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'会費収入'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'入会金収入'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'預貯金利子'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'雑収入'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'行事費'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'交際費'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'旅費'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'会議費'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'通信費'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="14">'事務費'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2532,10 +2532,8 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
+      <c r="A5" s="3" t="n">
+        <v>44287</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>8</v>
@@ -2729,10 +2727,10 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="3" t="n">
-        <v>44291</v>
+        <v>44287</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
@@ -2741,13 +2739,13 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>現金</t>
+          <t>前受金</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">鈴木 </t>
+          <t xml:space="preserve">吉田 </t>
         </is>
       </c>
       <c r="G5" s="5" t="n">
@@ -2765,7 +2763,7 @@
         <v>44291</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
@@ -2780,7 +2778,7 @@
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">田中 </t>
+          <t xml:space="preserve">鈴木 </t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
@@ -2795,10 +2793,10 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="3" t="n">
-        <v>44306</v>
+        <v>44291</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
@@ -2807,17 +2805,13 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>普通預金</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>ゆうちょ</t>
-        </is>
-      </c>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">木村 </t>
+          <t xml:space="preserve">田中 </t>
         </is>
       </c>
       <c r="G7" s="5" t="n">
@@ -2831,13 +2825,11 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>2021-04-01</t>
-        </is>
+      <c r="A8" s="3" t="n">
+        <v>44306</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
@@ -2846,13 +2838,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>前受金</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr"/>
+          <t>普通預金</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>ゆうちょ</t>
+        </is>
+      </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">吉田 </t>
+          <t xml:space="preserve">木村 </t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
